--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63EEB512-E98B-4B32-9EFE-2805641F82D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F451886-87FA-472D-BAB1-81681D4772E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -222,184 +222,184 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>01-01-2008</t>
-  </si>
-  <si>
-    <t>01-01-2009</t>
-  </si>
-  <si>
-    <t>01-01-2010</t>
-  </si>
-  <si>
-    <t>01-01-2011</t>
-  </si>
-  <si>
-    <t>01-01-2012</t>
-  </si>
-  <si>
-    <t>01-01-2013</t>
-  </si>
-  <si>
-    <t>01-01-2014</t>
-  </si>
-  <si>
-    <t>01-01-2015</t>
-  </si>
-  <si>
-    <t>01-01-2016</t>
-  </si>
-  <si>
-    <t>01-01-2017</t>
-  </si>
-  <si>
-    <t>01-01-2018</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>01-01-2020</t>
-  </si>
-  <si>
-    <t>01-01-2021</t>
-  </si>
-  <si>
-    <t>01-01-2022</t>
-  </si>
-  <si>
-    <t>01-04-2008</t>
-  </si>
-  <si>
-    <t>01-04-2009</t>
-  </si>
-  <si>
-    <t>01-04-2010</t>
-  </si>
-  <si>
-    <t>01-04-2011</t>
-  </si>
-  <si>
-    <t>01-04-2012</t>
-  </si>
-  <si>
-    <t>01-04-2013</t>
-  </si>
-  <si>
-    <t>01-04-2014</t>
-  </si>
-  <si>
-    <t>01-04-2015</t>
-  </si>
-  <si>
-    <t>01-04-2016</t>
-  </si>
-  <si>
-    <t>01-04-2017</t>
-  </si>
-  <si>
-    <t>01-04-2018</t>
-  </si>
-  <si>
-    <t>01-04-2019</t>
-  </si>
-  <si>
-    <t>01-04-2020</t>
-  </si>
-  <si>
-    <t>01-04-2021</t>
-  </si>
-  <si>
-    <t>01-04-2022</t>
-  </si>
-  <si>
-    <t>01-07-2008</t>
-  </si>
-  <si>
-    <t>01-07-2009</t>
-  </si>
-  <si>
-    <t>01-07-2010</t>
-  </si>
-  <si>
-    <t>01-07-2011</t>
-  </si>
-  <si>
-    <t>01-07-2012</t>
-  </si>
-  <si>
-    <t>01-07-2013</t>
-  </si>
-  <si>
-    <t>01-07-2014</t>
-  </si>
-  <si>
-    <t>01-07-2015</t>
-  </si>
-  <si>
-    <t>01-07-2016</t>
-  </si>
-  <si>
-    <t>01-07-2017</t>
-  </si>
-  <si>
-    <t>01-07-2018</t>
-  </si>
-  <si>
-    <t>01-07-2019</t>
-  </si>
-  <si>
-    <t>01-07-2020</t>
-  </si>
-  <si>
-    <t>01-07-2021</t>
-  </si>
-  <si>
-    <t>01-07-2022</t>
-  </si>
-  <si>
-    <t>01-10-2008</t>
-  </si>
-  <si>
-    <t>01-10-2009</t>
-  </si>
-  <si>
-    <t>01-10-2010</t>
-  </si>
-  <si>
-    <t>01-10-2011</t>
-  </si>
-  <si>
-    <t>01-10-2012</t>
-  </si>
-  <si>
-    <t>01-10-2013</t>
-  </si>
-  <si>
-    <t>01-10-2014</t>
-  </si>
-  <si>
-    <t>01-10-2015</t>
-  </si>
-  <si>
-    <t>01-10-2016</t>
-  </si>
-  <si>
-    <t>01-10-2017</t>
-  </si>
-  <si>
-    <t>01-10-2018</t>
-  </si>
-  <si>
-    <t>01-10-2019</t>
-  </si>
-  <si>
-    <t>01-10-2020</t>
-  </si>
-  <si>
-    <t>01-10-2021</t>
-  </si>
-  <si>
-    <t>01-10-2022</t>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2010-04-01</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2014-04-01</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2009-07-01</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2009-10-01</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,14 +760,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +780,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -789,7 +788,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -797,7 +796,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -805,7 +804,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -813,7 +812,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -821,7 +820,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -829,7 +828,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -837,7 +836,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -845,7 +844,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -853,7 +852,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -861,7 +860,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -869,7 +868,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -877,7 +876,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -885,7 +884,7 @@
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -893,7 +892,7 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -901,7 +900,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -909,7 +908,7 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -917,7 +916,7 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -925,7 +924,7 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -933,7 +932,7 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -941,7 +940,7 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -949,7 +948,7 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -957,7 +956,7 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -965,7 +964,7 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -973,7 +972,7 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -981,7 +980,7 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -989,7 +988,7 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -997,7 +996,7 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1005,7 +1004,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1013,7 +1012,7 @@
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1021,7 +1020,7 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1029,7 +1028,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1037,7 +1036,7 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1045,7 +1044,7 @@
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1053,7 +1052,7 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1061,7 +1060,7 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1069,7 +1068,7 @@
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1077,7 +1076,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1085,7 +1084,7 @@
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1093,7 +1092,7 @@
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1101,7 +1100,7 @@
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1109,7 +1108,7 @@
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1117,7 +1116,7 @@
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1125,7 +1124,7 @@
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1141,7 +1140,7 @@
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1149,7 +1148,7 @@
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1157,7 +1156,7 @@
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1165,7 +1164,7 @@
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1173,7 +1172,7 @@
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1181,7 +1180,7 @@
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1189,7 +1188,7 @@
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1197,7 +1196,7 @@
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1205,7 +1204,7 @@
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1213,7 +1212,7 @@
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1221,7 +1220,7 @@
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1229,7 +1228,7 @@
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1237,7 +1236,7 @@
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1245,7 +1244,7 @@
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1253,7 +1252,7 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F451886-87FA-472D-BAB1-81681D4772E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8665578-3026-4823-8EF2-AD774DE6845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -222,51 +222,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2013-01-01</t>
-  </si>
-  <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2021-01-01</t>
-  </si>
-  <si>
-    <t>2022-01-01</t>
-  </si>
-  <si>
     <t>2008-04-01</t>
   </si>
   <si>
@@ -400,6 +355,51 @@
   </si>
   <si>
     <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>1/1/2018</t>
+  </si>
+  <si>
+    <t>1/1/2019</t>
+  </si>
+  <si>
+    <t>1/1/2020</t>
+  </si>
+  <si>
+    <t>1/1/2021</t>
+  </si>
+  <si>
+    <t>1/1/2022</t>
+  </si>
+  <si>
+    <t>1/1/2008</t>
+  </si>
+  <si>
+    <t>1/1/2009</t>
+  </si>
+  <si>
+    <t>1/1/2010</t>
+  </si>
+  <si>
+    <t>1/1/2011</t>
+  </si>
+  <si>
+    <t>1/1/2012</t>
+  </si>
+  <si>
+    <t>1/1/2013</t>
+  </si>
+  <si>
+    <t>1/1/2014</t>
+  </si>
+  <si>
+    <t>1/1/2015</t>
+  </si>
+  <si>
+    <t>1/1/2016</t>
+  </si>
+  <si>
+    <t>1/1/2017</t>
   </si>
 </sst>
 </file>
@@ -441,9 +441,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,9 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -768,7 +772,7 @@
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -776,124 +780,126 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -941,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -965,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1005,7 +1011,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1019,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1021,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1035,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1037,7 +1043,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1051,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1059,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1075,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1083,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1099,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1107,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1123,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,7 +1131,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1139,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1147,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1155,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1163,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1179,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1187,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1195,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1203,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1219,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1221,7 +1227,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1235,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1243,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1251,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,7 +1259,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8665578-3026-4823-8EF2-AD774DE6845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807D053-3AA6-46E5-8734-4B12C93731CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -222,141 +222,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>2008-04-01</t>
-  </si>
-  <si>
-    <t>2009-04-01</t>
-  </si>
-  <si>
-    <t>2010-04-01</t>
-  </si>
-  <si>
-    <t>2011-04-01</t>
-  </si>
-  <si>
-    <t>2012-04-01</t>
-  </si>
-  <si>
-    <t>2013-04-01</t>
-  </si>
-  <si>
-    <t>2014-04-01</t>
-  </si>
-  <si>
-    <t>2015-04-01</t>
-  </si>
-  <si>
-    <t>2016-04-01</t>
-  </si>
-  <si>
-    <t>2017-04-01</t>
-  </si>
-  <si>
-    <t>2018-04-01</t>
-  </si>
-  <si>
-    <t>2019-04-01</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2008-07-01</t>
-  </si>
-  <si>
-    <t>2009-07-01</t>
-  </si>
-  <si>
-    <t>2010-07-01</t>
-  </si>
-  <si>
-    <t>2011-07-01</t>
-  </si>
-  <si>
-    <t>2012-07-01</t>
-  </si>
-  <si>
-    <t>2013-07-01</t>
-  </si>
-  <si>
-    <t>2014-07-01</t>
-  </si>
-  <si>
-    <t>2015-07-01</t>
-  </si>
-  <si>
-    <t>2016-07-01</t>
-  </si>
-  <si>
-    <t>2017-07-01</t>
-  </si>
-  <si>
-    <t>2018-07-01</t>
-  </si>
-  <si>
-    <t>2019-07-01</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2021-07-01</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>2008-10-01</t>
-  </si>
-  <si>
-    <t>2009-10-01</t>
-  </si>
-  <si>
-    <t>2010-10-01</t>
-  </si>
-  <si>
-    <t>2011-10-01</t>
-  </si>
-  <si>
-    <t>2012-10-01</t>
-  </si>
-  <si>
-    <t>2013-10-01</t>
-  </si>
-  <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
-    <t>2015-10-01</t>
-  </si>
-  <si>
-    <t>2016-10-01</t>
-  </si>
-  <si>
-    <t>2017-10-01</t>
-  </si>
-  <si>
-    <t>2018-10-01</t>
-  </si>
-  <si>
-    <t>2019-10-01</t>
-  </si>
-  <si>
-    <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>2021-10-01</t>
-  </si>
-  <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
     <t>1/1/2018</t>
   </si>
   <si>
@@ -400,6 +265,141 @@
   </si>
   <si>
     <t>1/1/2017</t>
+  </si>
+  <si>
+    <t>1/4/2008</t>
+  </si>
+  <si>
+    <t>1/4/2009</t>
+  </si>
+  <si>
+    <t>1/4/2010</t>
+  </si>
+  <si>
+    <t>1/4/2011</t>
+  </si>
+  <si>
+    <t>1/4/2012</t>
+  </si>
+  <si>
+    <t>1/4/2013</t>
+  </si>
+  <si>
+    <t>1/4/2014</t>
+  </si>
+  <si>
+    <t>1/4/2015</t>
+  </si>
+  <si>
+    <t>1/4/2016</t>
+  </si>
+  <si>
+    <t>1/4/2017</t>
+  </si>
+  <si>
+    <t>1/4/2018</t>
+  </si>
+  <si>
+    <t>1/4/2019</t>
+  </si>
+  <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
+    <t>1/4/2021</t>
+  </si>
+  <si>
+    <t>1/4/2022</t>
+  </si>
+  <si>
+    <t>1/7/2008</t>
+  </si>
+  <si>
+    <t>1/7/2009</t>
+  </si>
+  <si>
+    <t>1/7/2010</t>
+  </si>
+  <si>
+    <t>1/7/2011</t>
+  </si>
+  <si>
+    <t>1/7/2012</t>
+  </si>
+  <si>
+    <t>1/7/2013</t>
+  </si>
+  <si>
+    <t>1/7/2014</t>
+  </si>
+  <si>
+    <t>1/7/2015</t>
+  </si>
+  <si>
+    <t>1/7/2016</t>
+  </si>
+  <si>
+    <t>1/7/2017</t>
+  </si>
+  <si>
+    <t>1/7/2018</t>
+  </si>
+  <si>
+    <t>1/7/2019</t>
+  </si>
+  <si>
+    <t>1/7/2020</t>
+  </si>
+  <si>
+    <t>1/7/2021</t>
+  </si>
+  <si>
+    <t>1/7/2022</t>
+  </si>
+  <si>
+    <t>1/10/2008</t>
+  </si>
+  <si>
+    <t>1/10/2009</t>
+  </si>
+  <si>
+    <t>1/10/2010</t>
+  </si>
+  <si>
+    <t>1/10/2011</t>
+  </si>
+  <si>
+    <t>1/10/2012</t>
+  </si>
+  <si>
+    <t>1/10/2013</t>
+  </si>
+  <si>
+    <t>1/10/2014</t>
+  </si>
+  <si>
+    <t>1/10/2015</t>
+  </si>
+  <si>
+    <t>1/10/2016</t>
+  </si>
+  <si>
+    <t>1/10/2017</t>
+  </si>
+  <si>
+    <t>1/10/2018</t>
+  </si>
+  <si>
+    <t>1/10/2019</t>
+  </si>
+  <si>
+    <t>1/10/2020</t>
+  </si>
+  <si>
+    <t>1/10/2021</t>
+  </si>
+  <si>
+    <t>1/10/2022</t>
   </si>
 </sst>
 </file>
@@ -441,9 +441,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -763,7 +762,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,482 +783,482 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>113</v>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>114</v>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>115</v>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>117</v>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>119</v>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>120</v>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>121</v>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>69</v>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
+      <c r="B28" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>79</v>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
+      <c r="B35" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>81</v>
+      <c r="B36" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
+      <c r="B38" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
+      <c r="B39" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>85</v>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>87</v>
+      <c r="B42" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
+      <c r="B43" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>89</v>
+      <c r="B44" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
+      <c r="B45" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
+      <c r="B48" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
+      <c r="B51" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
+      <c r="B52" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>99</v>
+      <c r="B54" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>100</v>
+      <c r="B55" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>101</v>
+      <c r="B56" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>102</v>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>104</v>
+      <c r="B59" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>105</v>
+      <c r="B60" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>106</v>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807D053-3AA6-46E5-8734-4B12C93731CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5C5D9-CF52-4755-8319-76817108E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -441,10 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,9 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -783,25 +780,24 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -809,7 +805,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -817,7 +813,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -825,7 +821,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -833,7 +829,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -841,7 +837,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -849,7 +845,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -857,7 +853,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -865,7 +861,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -873,7 +869,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -881,7 +877,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -889,7 +885,7 @@
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -897,7 +893,7 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -905,7 +901,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -913,7 +909,7 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -921,7 +917,7 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -929,7 +925,7 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -937,7 +933,7 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -945,7 +941,7 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -953,7 +949,7 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -961,7 +957,7 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -969,7 +965,7 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -977,7 +973,7 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -985,7 +981,7 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -993,7 +989,7 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1001,7 +997,7 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1009,7 +1005,7 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1017,7 +1013,7 @@
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1025,7 +1021,7 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1033,7 +1029,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1041,7 +1037,7 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1049,7 +1045,7 @@
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1057,7 +1053,7 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1065,7 +1061,7 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1073,7 +1069,7 @@
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1081,7 +1077,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1089,7 +1085,7 @@
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1097,7 +1093,7 @@
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1105,7 +1101,7 @@
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1113,7 +1109,7 @@
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1121,7 +1117,7 @@
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1129,7 +1125,7 @@
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1137,7 +1133,7 @@
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1145,7 +1141,7 @@
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1153,7 +1149,7 @@
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1169,7 +1165,7 @@
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1177,7 +1173,7 @@
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1185,7 +1181,7 @@
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1193,7 +1189,7 @@
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1201,7 +1197,7 @@
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1209,7 +1205,7 @@
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1217,7 +1213,7 @@
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1225,7 +1221,7 @@
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1233,7 +1229,7 @@
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1241,7 +1237,7 @@
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1249,7 +1245,7 @@
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1257,7 +1253,7 @@
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5C5D9-CF52-4755-8319-76817108E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C2194-55C2-46B7-A001-F4DD7F466244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>1/1/2022</t>
-  </si>
-  <si>
-    <t>1/1/2008</t>
   </si>
   <si>
     <t>1/1/2009</t>
@@ -406,6 +403,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,9 +441,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,12 +761,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -780,25 +784,27 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B2" s="2">
+        <v>39448</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -822,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -902,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +932,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +940,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +988,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1012,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,7 +1020,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,7 +1036,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1044,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +1060,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1068,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1076,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +1092,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1108,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1124,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1132,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1140,7 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1148,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1156,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1164,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1172,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1188,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1196,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1212,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1228,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1236,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1244,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1260,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C2194-55C2-46B7-A001-F4DD7F466244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C64FE7-E64E-4E5F-A477-E5006EECCE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>1/10/2022</t>
+  </si>
+  <si>
+    <t>15-1-2008</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,9 +774,10 @@
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -780,17 +785,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>39448</v>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -799,7 +805,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -823,7 +829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -831,7 +837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -839,7 +845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -847,7 +853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -855,7 +861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -863,7 +869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -871,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -879,7 +885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -887,7 +893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -895,7 +901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C64FE7-E64E-4E5F-A477-E5006EECCE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE4341-EFA6-4BA1-B2F3-1E212B58F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <t>1/10/2022</t>
   </si>
   <si>
-    <t>15-1-2008</t>
+    <t>1-15-2008</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE4341-EFA6-4BA1-B2F3-1E212B58F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC08CF9-6AFF-4FCE-A586-4E2B081C9067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>1/10/2022</t>
-  </si>
-  <si>
-    <t>1-15-2008</t>
   </si>
 </sst>
 </file>
@@ -789,8 +786,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
+      <c r="B2" s="1">
+        <v>39448</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC08CF9-6AFF-4FCE-A586-4E2B081C9067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F1FAE-DF01-4709-B7AD-F651A02999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -222,190 +222,19 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>1/1/2018</t>
-  </si>
-  <si>
-    <t>1/1/2019</t>
-  </si>
-  <si>
-    <t>1/1/2020</t>
-  </si>
-  <si>
-    <t>1/1/2021</t>
-  </si>
-  <si>
-    <t>1/1/2022</t>
-  </si>
-  <si>
-    <t>1/1/2009</t>
-  </si>
-  <si>
-    <t>1/1/2010</t>
-  </si>
-  <si>
-    <t>1/1/2011</t>
-  </si>
-  <si>
-    <t>1/1/2012</t>
-  </si>
-  <si>
-    <t>1/1/2013</t>
-  </si>
-  <si>
-    <t>1/1/2014</t>
-  </si>
-  <si>
-    <t>1/1/2015</t>
-  </si>
-  <si>
-    <t>1/1/2016</t>
-  </si>
-  <si>
-    <t>1/1/2017</t>
-  </si>
-  <si>
-    <t>1/4/2008</t>
-  </si>
-  <si>
-    <t>1/4/2009</t>
-  </si>
-  <si>
-    <t>1/4/2010</t>
-  </si>
-  <si>
-    <t>1/4/2011</t>
-  </si>
-  <si>
-    <t>1/4/2012</t>
-  </si>
-  <si>
-    <t>1/4/2013</t>
-  </si>
-  <si>
-    <t>1/4/2014</t>
-  </si>
-  <si>
-    <t>1/4/2015</t>
-  </si>
-  <si>
-    <t>1/4/2016</t>
-  </si>
-  <si>
-    <t>1/4/2017</t>
-  </si>
-  <si>
-    <t>1/4/2018</t>
-  </si>
-  <si>
-    <t>1/4/2019</t>
-  </si>
-  <si>
-    <t>1/4/2020</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>1/4/2022</t>
-  </si>
-  <si>
-    <t>1/7/2008</t>
-  </si>
-  <si>
-    <t>1/7/2009</t>
-  </si>
-  <si>
-    <t>1/7/2010</t>
-  </si>
-  <si>
-    <t>1/7/2011</t>
-  </si>
-  <si>
-    <t>1/7/2012</t>
-  </si>
-  <si>
-    <t>1/7/2013</t>
-  </si>
-  <si>
-    <t>1/7/2014</t>
-  </si>
-  <si>
-    <t>1/7/2015</t>
-  </si>
-  <si>
-    <t>1/7/2016</t>
-  </si>
-  <si>
-    <t>1/7/2017</t>
-  </si>
-  <si>
-    <t>1/7/2018</t>
-  </si>
-  <si>
-    <t>1/7/2019</t>
-  </si>
-  <si>
-    <t>1/7/2020</t>
-  </si>
-  <si>
-    <t>1/7/2021</t>
-  </si>
-  <si>
-    <t>1/7/2022</t>
-  </si>
-  <si>
-    <t>1/10/2008</t>
-  </si>
-  <si>
-    <t>1/10/2009</t>
-  </si>
-  <si>
-    <t>1/10/2010</t>
-  </si>
-  <si>
-    <t>1/10/2011</t>
-  </si>
-  <si>
-    <t>1/10/2012</t>
-  </si>
-  <si>
-    <t>1/10/2013</t>
-  </si>
-  <si>
-    <t>1/10/2014</t>
-  </si>
-  <si>
-    <t>1/10/2015</t>
-  </si>
-  <si>
-    <t>1/10/2016</t>
-  </si>
-  <si>
-    <t>1/10/2017</t>
-  </si>
-  <si>
-    <t>1/10/2018</t>
-  </si>
-  <si>
-    <t>1/10/2019</t>
-  </si>
-  <si>
-    <t>1/10/2020</t>
-  </si>
-  <si>
-    <t>1/10/2021</t>
-  </si>
-  <si>
-    <t>1/10/2022</t>
+    <t>día</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,11 +270,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,510 +586,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>39448</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f>+C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>1-1-2008</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B61" si="0">+C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>1-1-2009</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2010</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2011</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2012</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2013</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2014</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2015</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2016</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2017</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2018</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2019</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2020</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2021</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1-2022</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2008</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2009</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2010</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2011</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2012</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2013</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2014</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2015</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2016</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2017</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2018</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2019</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2020</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2021</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>1-4-2022</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2008</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2009</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2010</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2011</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2012</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2013</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2014</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2015</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2016</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2017</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2018</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2019</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2020</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2021</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>1-7-2022</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2008</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2009</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2010</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2011</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2012</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2013</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2014</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2015</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2016</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2017</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2018</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2019</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2020</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2021</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>120</v>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>1-10-2022</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F1FAE-DF01-4709-B7AD-F651A02999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410F466-A62E-44F8-8777-3F6F78FA11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
@@ -588,7 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -620,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>+C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <f>+D2&amp;"-"&amp;C2&amp;"-"&amp;E2</f>
         <v>1-1-2008</v>
       </c>
       <c r="C2">
@@ -638,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B61" si="0">+C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <f t="shared" ref="B3:B61" si="0">+D3&amp;"-"&amp;C3&amp;"-"&amp;E3</f>
         <v>1-1-2009</v>
       </c>
       <c r="C3">
@@ -891,7 +893,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2008</v>
+        <v>4-1-2008</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -909,7 +911,7 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2009</v>
+        <v>4-1-2009</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -927,7 +929,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2010</v>
+        <v>4-1-2010</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -945,7 +947,7 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2011</v>
+        <v>4-1-2011</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -963,7 +965,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2012</v>
+        <v>4-1-2012</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -981,7 +983,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2013</v>
+        <v>4-1-2013</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -999,7 +1001,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2014</v>
+        <v>4-1-2014</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1017,7 +1019,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2015</v>
+        <v>4-1-2015</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1035,7 +1037,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2016</v>
+        <v>4-1-2016</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1053,7 +1055,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2017</v>
+        <v>4-1-2017</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1071,7 +1073,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2018</v>
+        <v>4-1-2018</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1089,7 +1091,7 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2019</v>
+        <v>4-1-2019</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2020</v>
+        <v>4-1-2020</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1125,7 +1127,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2021</v>
+        <v>4-1-2021</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1143,7 +1145,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>1-4-2022</v>
+        <v>4-1-2022</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1161,7 +1163,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2008</v>
+        <v>7-1-2008</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1179,7 +1181,7 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2009</v>
+        <v>7-1-2009</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1197,7 +1199,7 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2010</v>
+        <v>7-1-2010</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1215,7 +1217,7 @@
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2011</v>
+        <v>7-1-2011</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2012</v>
+        <v>7-1-2012</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1251,7 +1253,7 @@
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2013</v>
+        <v>7-1-2013</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1269,7 +1271,7 @@
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2014</v>
+        <v>7-1-2014</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1287,7 +1289,7 @@
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2015</v>
+        <v>7-1-2015</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1305,7 +1307,7 @@
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2016</v>
+        <v>7-1-2016</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1323,7 +1325,7 @@
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2017</v>
+        <v>7-1-2017</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1341,7 +1343,7 @@
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2018</v>
+        <v>7-1-2018</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1359,7 +1361,7 @@
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2019</v>
+        <v>7-1-2019</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1377,7 +1379,7 @@
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2020</v>
+        <v>7-1-2020</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1395,7 +1397,7 @@
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2021</v>
+        <v>7-1-2021</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1413,7 +1415,7 @@
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>1-7-2022</v>
+        <v>7-1-2022</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1431,7 +1433,7 @@
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2008</v>
+        <v>10-1-2008</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1449,7 +1451,7 @@
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2009</v>
+        <v>10-1-2009</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1467,7 +1469,7 @@
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2010</v>
+        <v>10-1-2010</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1485,7 +1487,7 @@
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2011</v>
+        <v>10-1-2011</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1503,7 +1505,7 @@
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2012</v>
+        <v>10-1-2012</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1521,7 +1523,7 @@
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2013</v>
+        <v>10-1-2013</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1539,7 +1541,7 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2014</v>
+        <v>10-1-2014</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1557,7 +1559,7 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2015</v>
+        <v>10-1-2015</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1575,7 +1577,7 @@
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2016</v>
+        <v>10-1-2016</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1593,7 +1595,7 @@
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2017</v>
+        <v>10-1-2017</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1611,7 +1613,7 @@
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2018</v>
+        <v>10-1-2018</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1629,7 +1631,7 @@
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2019</v>
+        <v>10-1-2019</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1647,7 +1649,7 @@
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2020</v>
+        <v>10-1-2020</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1665,7 +1667,7 @@
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2021</v>
+        <v>10-1-2021</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1683,7 +1685,7 @@
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>1-10-2022</v>
+        <v>10-1-2022</v>
       </c>
       <c r="C61">
         <v>1</v>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410F466-A62E-44F8-8777-3F6F78FA11D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C05E21-B31F-4179-9D69-494AF86D183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>año</t>
+  </si>
+  <si>
+    <t>Trimestre 2</t>
+  </si>
+  <si>
+    <t>Primer trimestre 2021</t>
+  </si>
+  <si>
+    <t>Primer trimestre 2020</t>
+  </si>
+  <si>
+    <t>Segundo trimestre 2020</t>
+  </si>
+  <si>
+    <t>Tercer trimestre 2020</t>
+  </si>
+  <si>
+    <t>Cuarto trimestre 2020</t>
+  </si>
+  <si>
+    <t>Primer trimestre 2019</t>
+  </si>
+  <si>
+    <t>Segundo trimestre 2019</t>
+  </si>
+  <si>
+    <t>Tercer trimestre 2019</t>
+  </si>
+  <si>
+    <t>Cuarto trimestre 2019</t>
   </si>
 </sst>
 </file>
@@ -586,21 +616,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -616,8 +646,11 @@
       <c r="E1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +668,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +686,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -671,7 +704,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -689,7 +722,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -707,7 +740,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -725,7 +758,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -743,7 +776,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -761,7 +794,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -779,7 +812,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -797,7 +830,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -815,7 +848,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -832,8 +865,11 @@
       <c r="E13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -850,8 +886,11 @@
       <c r="E14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -868,8 +907,11 @@
       <c r="E15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -887,7 +929,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -905,7 +947,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -923,7 +965,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -941,7 +983,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -959,7 +1001,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -977,7 +1019,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1037,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1073,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1109,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1127,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1102,8 +1144,11 @@
       <c r="E28">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1120,8 +1165,11 @@
       <c r="E29">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1139,7 +1187,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1157,7 +1205,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1223,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1241,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1259,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1277,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1295,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1313,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1283,7 +1331,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1301,7 +1349,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1319,7 +1367,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1385,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1355,7 +1403,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1372,8 +1420,11 @@
       <c r="E43">
         <v>2019</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1390,8 +1441,11 @@
       <c r="E44">
         <v>2020</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1463,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1427,7 +1481,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1445,7 +1499,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1463,7 +1517,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1481,7 +1535,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1553,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1535,7 +1589,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1553,7 +1607,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1571,7 +1625,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1589,7 +1643,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1607,7 +1661,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1625,7 +1679,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1642,8 +1696,11 @@
       <c r="E58">
         <v>2019</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1660,8 +1717,11 @@
       <c r="E59">
         <v>2020</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -1679,7 +1739,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>

--- a/Género/Violencia contra Mujer/Trimestres.xlsx
+++ b/Género/Violencia contra Mujer/Trimestres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C05E21-B31F-4179-9D69-494AF86D183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA314BF-268E-48FA-92CC-28DE6298DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C671ED5-3137-46FA-9BCB-61C2FAAC7349}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>1er trimestre 2008</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Cuarto trimestre 2019</t>
+  </si>
+  <si>
+    <t>Fecha 1</t>
   </si>
 </sst>
 </file>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90255FB2-FC5C-4262-BA4F-48D59C4329F2}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +633,7 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -649,8 +652,11 @@
       <c r="F1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,8 +673,12 @@
       <c r="E2">
         <v>2008</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>+C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>1-1-2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -685,8 +695,12 @@
       <c r="E3">
         <v>2009</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G61" si="1">+C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>1-1-2009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +717,12 @@
       <c r="E4">
         <v>2010</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +739,12 @@
       <c r="E5">
         <v>2011</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -739,8 +761,12 @@
       <c r="E6">
         <v>2012</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -757,8 +783,12 @@
       <c r="E7">
         <v>2013</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -775,8 +805,12 @@
       <c r="E8">
         <v>2014</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -793,8 +827,12 @@
       <c r="E9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -811,8 +849,12 @@
       <c r="E10">
         <v>2016</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -829,8 +871,12 @@
       <c r="E11">
         <v>2017</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -847,8 +893,12 @@
       <c r="E12">
         <v>2018</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -868,8 +918,12 @@
       <c r="F13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -889,8 +943,12 @@
       <c r="F14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -910,8 +968,12 @@
       <c r="F15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -928,8 +990,12 @@
       <c r="E16">
         <v>2022</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1-2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -946,8 +1012,12 @@
       <c r="E17">
         <v>2008</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -964,8 +1034,12 @@
       <c r="E18">
         <v>2009</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -982,8 +1056,12 @@
       <c r="E19">
         <v>2010</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1000,8 +1078,12 @@
       <c r="E20">
         <v>2011</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1018,8 +1100,12 @@
       <c r="E21">
         <v>2012</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1036,8 +1122,12 @@
       <c r="E22">
         <v>2013</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1054,8 +1144,12 @@
       <c r="E23">
         <v>2014</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1072,8 +1166,12 @@
       <c r="E24">
         <v>2015</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1090,8 +1188,12 @@
       <c r="E25">
         <v>2016</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1108,8 +1210,12 @@
       <c r="E26">
         <v>2017</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1126,8 +1232,12 @@
       <c r="E27">
         <v>2018</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1147,8 +1257,12 @@
       <c r="F28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1168,8 +1282,12 @@
       <c r="F29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1186,8 +1304,12 @@
       <c r="E30">
         <v>2021</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1204,8 +1326,12 @@
       <c r="E31">
         <v>2022</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>1-4-2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1222,8 +1348,12 @@
       <c r="E32">
         <v>2008</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1240,8 +1370,12 @@
       <c r="E33">
         <v>2009</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1258,8 +1392,12 @@
       <c r="E34">
         <v>2010</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1414,12 @@
       <c r="E35">
         <v>2011</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1294,8 +1436,12 @@
       <c r="E36">
         <v>2012</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1312,8 +1458,12 @@
       <c r="E37">
         <v>2013</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1330,8 +1480,12 @@
       <c r="E38">
         <v>2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1348,8 +1502,12 @@
       <c r="E39">
         <v>2015</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1366,8 +1524,12 @@
       <c r="E40">
         <v>2016</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1384,8 +1546,12 @@
       <c r="E41">
         <v>2017</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1402,8 +1568,12 @@
       <c r="E42">
         <v>2018</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1423,8 +1593,12 @@
       <c r="F43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1444,8 +1618,12 @@
       <c r="F44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1462,8 +1640,12 @@
       <c r="E45">
         <v>2021</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1480,8 +1662,12 @@
       <c r="E46">
         <v>2022</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>1-7-2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1498,8 +1684,12 @@
       <c r="E47">
         <v>2008</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1516,8 +1706,12 @@
       <c r="E48">
         <v>2009</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1534,8 +1728,12 @@
       <c r="E49">
         <v>2010</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1552,8 +1750,12 @@
       <c r="E50">
         <v>2011</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1570,8 +1772,12 @@
       <c r="E51">
         <v>2012</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1588,8 +1794,12 @@
       <c r="E52">
         <v>2013</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1606,8 +1816,12 @@
       <c r="E53">
         <v>2014</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1624,8 +1838,12 @@
       <c r="E54">
         <v>2015</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1642,8 +1860,12 @@
       <c r="E55">
         <v>2016</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1660,8 +1882,12 @@
       <c r="E56">
         <v>2017</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1678,8 +1904,12 @@
       <c r="E57">
         <v>2018</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1699,8 +1929,12 @@
       <c r="F58" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1720,8 +1954,12 @@
       <c r="F59" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -1738,8 +1976,12 @@
       <c r="E60">
         <v>2021</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1755,6 +1997,10 @@
       </c>
       <c r="E61">
         <v>2022</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>1-10-2022</v>
       </c>
     </row>
   </sheetData>
